--- a/Epreuve-E4-Ali-Clarens.xlsx
+++ b/Epreuve-E4-Ali-Clarens.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t xml:space="preserve">SESSION 2025</t>
+    <t xml:space="preserve">SESSION 2026</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">NOM et prénom : Ali Clarens</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
+    <t xml:space="preserve">N° candidat : 02248121337</t>
   </si>
   <si>
     <t xml:space="preserve">Centre de formation : Lycée Turgot</t>
@@ -52,7 +52,27 @@
     <t xml:space="preserve">▢ SLAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse URL du portfolio :</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adresse URL du portfolio : </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://clarennns.github.io/clarennns-portfolio/</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Compétences mises en œuvre
@@ -139,45 +159,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Réalisation d’un 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">er</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> site web en HTML/CSS</t>
-    </r>
+    <t xml:space="preserve">Réalisation d’un 1er site web en HTML/CSS</t>
   </si>
   <si>
     <t xml:space="preserve">1ère année</t>
   </si>
   <si>
-    <t xml:space="preserve">Conception et mise en place d'une base de données relationnelle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation d’un 2nd site web en PHP avec une architecture MVC</t>
   </si>
   <si>
@@ -193,12 +180,6 @@
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion des stocks et traçabilité des composants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine 1/2/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diagnostic matériel et logiciel</t>
   </si>
   <si>
@@ -217,10 +198,31 @@
     <t xml:space="preserve">Préparation et remise de commandes </t>
   </si>
   <si>
-    <t xml:space="preserve">Semaine /2/3 /4</t>
+    <t xml:space="preserve">Semaine /2/3/4</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse logique et technique d'un flux de données en temps réel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaine 2/3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation technique et résilience d'un script de scraping de flux RSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaine 5/6/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation d'une fonctionnalité de gestion des actualités </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration et administration de base de données NoSQL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaine 1/2</t>
   </si>
 </sst>
 </file>
@@ -231,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,6 +265,14 @@
     <font>
       <b val="true"/>
       <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -304,14 +314,6 @@
     </font>
     <font>
       <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -336,13 +338,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -584,51 +579,6 @@
         <color rgb="FF4A452A"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF4A452A"/>
       </bottom>
       <diagonal/>
@@ -662,7 +612,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -707,44 +657,44 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -759,47 +709,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,13 +795,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AQ1048576"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
@@ -1044,7 +958,7 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1062,7 +976,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1072,11 +986,11 @@
       <c r="H11" s="23"/>
     </row>
     <row r="12" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1085,38 +999,38 @@
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="17" customFormat="true" ht="36.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="36.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1144,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1153,25 +1067,23 @@
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="20" t="s">
+    <row r="18" s="17" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="22"/>
@@ -1181,21 +1093,27 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" s="17" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
+    <row r="20" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1204,8 +1122,12 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -1214,66 +1136,171 @@
       <c r="H22" s="23"/>
     </row>
     <row r="23" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+    </row>
+    <row r="27" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+    </row>
+    <row r="28" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+    </row>
+    <row r="29" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1318,7 +1345,7 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
     </row>
-    <row r="30" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1363,7 +1390,7 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
     </row>
-    <row r="31" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1408,7 +1435,7 @@
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
     </row>
-    <row r="32" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1453,7 +1480,7 @@
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
     </row>
-    <row r="33" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1498,7 +1525,7 @@
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
     </row>
-    <row r="34" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1543,7 +1570,7 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
     </row>
-    <row r="35" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1588,7 +1615,7 @@
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
     </row>
-    <row r="36" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1633,13 +1660,96 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+    </row>
+    <row r="38" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:F1"/>
@@ -1652,9 +1762,12 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://clarennns.github.io/clarennns-portfolio/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
